--- a/Source/Amba.Report.Test/Amba.Report.Test/Templates/Orders.xlsx
+++ b/Source/Amba.Report.Test/Amba.Report.Test/Templates/Orders.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="120" windowWidth="23775" windowHeight="15015"/>
+    <workbookView xWindow="33420" yWindow="120" windowWidth="23775" windowHeight="15015"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <definedName name="Categories.Products.Name">Orders!$A$8</definedName>
     <definedName name="Categories.Products.Orders">Orders!$9:$9</definedName>
     <definedName name="Categories.Products.Orders.Amount">Orders!$E$9</definedName>
+    <definedName name="Categories.Products.Orders.Customer">Orders!$A$9</definedName>
     <definedName name="Categories.Products.Orders.Qnt">Orders!$D$9</definedName>
     <definedName name="Categories.Products.Qnt">Orders!$D$10</definedName>
     <definedName name="Categories.Qnt">Orders!$D$11</definedName>
-    <definedName name="Company.Address">Orders!$D$4</definedName>
-    <definedName name="Company.Name">Orders!$D$3</definedName>
-    <definedName name="Date">Orders!$D$2</definedName>
+    <definedName name="Company.Address">Orders!$B$4</definedName>
+    <definedName name="Company.Name">Orders!$B$3</definedName>
+    <definedName name="Date">Orders!$B$2</definedName>
     <definedName name="PrintedAt">Orders!$B$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -81,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +94,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Gill Sans MT"/>
@@ -186,49 +194,15 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,7 +214,43 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -590,112 +600,113 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A7:XFD7 A11:XFD11"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="10.75" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="19">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="20">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
